--- a/Benefit/Benefit_2020.xlsx
+++ b/Benefit/Benefit_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/candiceyu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/candiceyu/Documents/PSTAT296B/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A50BCBA1-6401-AA46-BC96-39E2900DBD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84222CC6-DC83-BB48-8C1B-9FBE5733CE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" xr2:uid="{0D027844-06E5-AA4D-9A91-A62614D9D6FD}"/>
+    <workbookView xWindow="2520" yWindow="500" windowWidth="26280" windowHeight="15980" xr2:uid="{0D027844-06E5-AA4D-9A91-A62614D9D6FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="113">
   <si>
     <t>Contract_ID</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>https://q1medicare.com/MedicareAdvantage-2020C-MedicareHealthPlanBenefits.php?state=CT&amp;source=2020MAFinder&amp;ZIP=&amp;countyCode=9013&amp;contractId=H5854&amp;planId=011&amp;segmentId=0&amp;plan=Anthem%20MediBlue%20Extra%20(HMO)%20-%20H5854-011-0&amp;utm_source=partd&amp;utm_medium=mafinder&amp;utm_campaign=planname</t>
+  </si>
+  <si>
+    <t>https://q1medicare.com/MedicareAdvantage-2020C-MedicareHealthPlanBenefits.php?source=2020MAStarDetails&amp;countyCode=9003&amp;state=CT&amp;contractId=H3528&amp;planId=011&amp;plan=ConnectiCare%20Flex%20Plan%203%20(HMO-POS)%20-%20H3528-011-1&amp;utm_source=partd&amp;utm_medium=MAStarDetails&amp;utm_campaign=planname</t>
   </si>
 </sst>
 </file>
@@ -746,13 +749,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DF41D3-E621-6946-8717-3B5A60AA81D7}">
-  <dimension ref="A1:BX27"/>
+  <dimension ref="A1:BX28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="BP1" workbookViewId="0">
+      <selection activeCell="BV24" sqref="BV24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -6962,6 +6990,236 @@
       </c>
       <c r="BX27" s="3" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="1">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F28" s="1">
+        <v>49</v>
+      </c>
+      <c r="G28" s="1">
+        <v>300</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>5500</v>
+      </c>
+      <c r="J28" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>465</v>
+      </c>
+      <c r="N28" s="1">
+        <v>4</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R28" s="1">
+        <v>1</v>
+      </c>
+      <c r="S28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
+        <v>5</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>50</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>90</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>50</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>325</v>
+      </c>
+      <c r="AH28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>325</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>325</v>
+      </c>
+      <c r="AK28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>50</v>
+      </c>
+      <c r="AM28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>50</v>
+      </c>
+      <c r="AP28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AS28" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT28" s="1">
+        <v>10</v>
+      </c>
+      <c r="AU28" s="1">
+        <v>42</v>
+      </c>
+      <c r="AV28" s="1">
+        <v>95</v>
+      </c>
+      <c r="AW28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX28" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="AY28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR28" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU28" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX28" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
